--- a/templates/dataplant/Imaging_assay.xlsx
+++ b/templates/dataplant/Imaging_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -263,13 +263,19 @@
     <t>Term Accession Number (DPBO:1000120)</t>
   </si>
   <si>
-    <t>Output [Raw Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>organelles</t>
+    <t>organelle</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/GO:0043226</t>
   </si>
   <si>
     <t xml:space="preserve">OperaLX spinning-disk confocal microscope (Perkin Elmer) </t>
@@ -290,31 +296,22 @@
     <t>DIC</t>
   </si>
   <si>
-    <t>MetaXpress software</t>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000191</t>
+  </si>
+  <si>
+    <t>MetaXpress Software</t>
+  </si>
+  <si>
+    <t>V6.1</t>
   </si>
   <si>
     <t>Image Dimension (XYZCT): 1376 x 1040 x 16 x 2 x 1</t>
   </si>
   <si>
     <t>OME-TIFF</t>
-  </si>
-  <si>
-    <t>single cells</t>
-  </si>
-  <si>
-    <t>epifluorescence microscope (IX-81; Olympus-Europe, Hamburg, Germany)</t>
-  </si>
-  <si>
-    <t>Cascade II 512 _ 512, Photometrics</t>
-  </si>
-  <si>
-    <t>FITC</t>
-  </si>
-  <si>
-    <t>TIFF</t>
-  </si>
-  <si>
-    <t>colony</t>
   </si>
 </sst>
 </file>
@@ -370,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AR4" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AR4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AR2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AR2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -461,7 +458,7 @@
     <tableColumn id="41" name="Parameter [image file path]" totalsRowFunction="none"/>
     <tableColumn id="42" name="Term Source REF (DPBO:1000120)" totalsRowFunction="none"/>
     <tableColumn id="43" name="Term Accession Number (DPBO:1000120)" totalsRowFunction="none"/>
-    <tableColumn id="44" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="44" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,7 +946,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -1094,31 +1091,31 @@
         <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
         <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
         <v>84</v>
@@ -1127,7 +1124,7 @@
         <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O2" t="s">
         <v>84</v>
@@ -1136,16 +1133,16 @@
         <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="U2" t="s">
         <v>84</v>
@@ -1163,7 +1160,7 @@
         <v>84</v>
       </c>
       <c r="Z2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="s">
         <v>84</v>
@@ -1190,7 +1187,7 @@
         <v>84</v>
       </c>
       <c r="AI2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AJ2" t="s">
         <v>84</v>
@@ -1199,7 +1196,7 @@
         <v>84</v>
       </c>
       <c r="AL2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AM2" t="s">
         <v>84</v>
@@ -1217,274 +1214,6 @@
         <v>84</v>
       </c>
       <c r="AR2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR4" t="s">
         <v>84</v>
       </c>
     </row>

--- a/templates/dataplant/Imaging_assay.xlsx
+++ b/templates/dataplant/Imaging_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Description</t>
@@ -146,7 +146,7 @@
     <t>Term Accession Number (DPBO:1000121)</t>
   </si>
   <si>
-    <t>Parameter [microscope]</t>
+    <t>Component [microscope]</t>
   </si>
   <si>
     <t>Term Source REF (OBI:0400169)</t>
@@ -155,7 +155,7 @@
     <t>Term Accession Number (OBI:0400169)</t>
   </si>
   <si>
-    <t>Parameter [digital camera]</t>
+    <t>Component [digital camera]</t>
   </si>
   <si>
     <t>Term Source REF (OBI:0001048)</t>
@@ -164,13 +164,13 @@
     <t>Term Accession Number (OBI:0001048)</t>
   </si>
   <si>
-    <t>Parameter [Objective]</t>
-  </si>
-  <si>
-    <t>Term Source REF (OME:Objective)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (OME:Objective)</t>
+    <t>Component [Objective]</t>
+  </si>
+  <si>
+    <t>Term Source REF (REPR:Objective)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (REPR:Objective)</t>
   </si>
   <si>
     <t>Parameter [magnification]</t>
@@ -191,7 +191,7 @@
     <t>Term Accession Number (DPBO:1000125)</t>
   </si>
   <si>
-    <t>Parameter [Imaging Software Name]</t>
+    <t>Component [Imaging Software Name]</t>
   </si>
   <si>
     <t>Term Source REF (NCIT:C175898)</t>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t xml:space="preserve">OperaLX spinning-disk confocal microscope (Perkin Elmer) </t>
-  </si>
-  <si>
-    <t>user-specific</t>
   </si>
   <si>
     <t>CoolSNAP HQ 1.4; Photometrics</t>
@@ -419,22 +416,22 @@
     <tableColumn id="2" name="Parameter [target compartment]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (DPBO:1000121)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (DPBO:1000121)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [microscope]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Component [microscope]" totalsRowFunction="none"/>
     <tableColumn id="6" name="Term Source REF (OBI:0400169)" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Accession Number (OBI:0400169)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [digital camera]" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Component [digital camera]" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Source REF (OBI:0001048)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (OBI:0001048)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [Objective]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (OME:Objective)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (OME:Objective)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Component [Objective]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (REPR:Objective)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (REPR:Objective)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Parameter [magnification]" totalsRowFunction="none"/>
     <tableColumn id="15" name="Term Source REF (DPBO:1000140)" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Accession Number (DPBO:1000140)" totalsRowFunction="none"/>
     <tableColumn id="17" name="Parameter [microscope filter]" totalsRowFunction="none"/>
     <tableColumn id="18" name="Term Source REF (DPBO:1000125)" totalsRowFunction="none"/>
     <tableColumn id="19" name="Term Accession Number (DPBO:1000125)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [Imaging Software Name]" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Component [Imaging Software Name]" totalsRowFunction="none"/>
     <tableColumn id="21" name="Term Source REF (NCIT:C175898)" totalsRowFunction="none"/>
     <tableColumn id="22" name="Term Accession Number (NCIT:C175898)" totalsRowFunction="none"/>
     <tableColumn id="23" name="Parameter [imaging software settings]" totalsRowFunction="none"/>
@@ -1100,103 +1097,103 @@
         <v>88</v>
       </c>
       <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
         <v>90</v>
       </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
         <v>91</v>
       </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
         <v>92</v>
       </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>93</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>94</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>95</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="U2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
         <v>98</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>99</v>
       </c>
       <c r="AM2" t="s">
         <v>84</v>

--- a/templates/dataplant/Imaging_assay.xlsx
+++ b/templates/dataplant/Imaging_assay.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="3ASY05_Imaging" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="imagingassay" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Template that describes the measurement working steps for imaging-related research.</t>
+    <t>Template that describes the measurement working steps for imaging-related research. Template is based on REMBI (recommended metadata for biological images).</t>
   </si>
   <si>
     <t>Organisation</t>
@@ -50,7 +50,7 @@
     <t>Table</t>
   </si>
   <si>
-    <t>3ASY05_Imaging</t>
+    <t>imagingassay</t>
   </si>
   <si>
     <t>ERS</t>
@@ -98,12 +98,30 @@
     <t>Author Last Name</t>
   </si>
   <si>
+    <t>Krooß</t>
+  </si>
+  <si>
+    <t>Zander</t>
+  </si>
+  <si>
+    <t>Eggels</t>
+  </si>
+  <si>
     <t>Rempfer</t>
   </si>
   <si>
     <t>Author First Name</t>
   </si>
   <si>
+    <t>Ksenia</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
     <t>Christine</t>
   </si>
   <si>
@@ -125,6 +143,12 @@
     <t>Author Affiliation</t>
   </si>
   <si>
+    <t>Heinrich Heine Universität Düsseldorf</t>
+  </si>
+  <si>
+    <t>Forschungszentrum Jülich</t>
+  </si>
+  <si>
     <t>Author Roles</t>
   </si>
   <si>
@@ -134,34 +158,16 @@
     <t>Author Roles Term Source REF</t>
   </si>
   <si>
-    <t>Input [Source Name]</t>
-  </si>
-  <si>
-    <t>Parameter [target compartment]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000121)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000121)</t>
-  </si>
-  <si>
-    <t>Component [microscope]</t>
-  </si>
-  <si>
-    <t>Term Source REF (OBI:0400169)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (OBI:0400169)</t>
-  </si>
-  <si>
-    <t>Component [digital camera]</t>
-  </si>
-  <si>
-    <t>Term Source REF (OBI:0001048)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (OBI:0001048)</t>
+    <t>Input [Sample Name]</t>
+  </si>
+  <si>
+    <t>Component [Imaging System]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C78808)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C78808)</t>
   </si>
   <si>
     <t>Component [Objective]</t>
@@ -173,24 +179,6 @@
     <t>Term Accession Number (REPR:Objective)</t>
   </si>
   <si>
-    <t>Parameter [magnification]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000140)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000140)</t>
-  </si>
-  <si>
-    <t>Parameter [microscope filter]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000125)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000125)</t>
-  </si>
-  <si>
     <t>Component [Imaging Software Name]</t>
   </si>
   <si>
@@ -200,40 +188,49 @@
     <t>Term Accession Number (NCIT:C175898)</t>
   </si>
   <si>
-    <t>Parameter [imaging software settings]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000124)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000124)</t>
-  </si>
-  <si>
-    <t>Parameter [imaging software version]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000123)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000123)</t>
-  </si>
-  <si>
-    <t>Parameter [Assay Name]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NCIT:C178857)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NCIT:C178857)</t>
-  </si>
-  <si>
-    <t>Parameter [dataset name]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000126)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000126)</t>
+    <t>Parameter [Imaging Technique]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C17369)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C17369)</t>
+  </si>
+  <si>
+    <t>Parameter [excitation method]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000124)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000124)</t>
+  </si>
+  <si>
+    <t>Parameter [Detector]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C41276)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C41276)</t>
+  </si>
+  <si>
+    <t>Parameter [Excitation Wavelength]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C204095)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C204095)</t>
+  </si>
+  <si>
+    <t>Parameter [detection wavelength]</t>
+  </si>
+  <si>
+    <t>Term Source REF (AFQ:0000029)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (AFQ:0000029)</t>
   </si>
   <si>
     <t>Parameter [image dimensionality]</t>
@@ -245,6 +242,15 @@
     <t>Term Accession Number (DPBO:1000141)</t>
   </si>
   <si>
+    <t>Parameter [Pixel Size]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C94953)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C94953)</t>
+  </si>
+  <si>
     <t>Parameter [raw data file format]</t>
   </si>
   <si>
@@ -254,55 +260,25 @@
     <t>Term Accession Number (DPBO:0000021)</t>
   </si>
   <si>
-    <t>Parameter [image file path]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000120)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000120)</t>
-  </si>
-  <si>
     <t>Output [Data]</t>
   </si>
   <si>
+    <t>Data Format</t>
+  </si>
+  <si>
+    <t>Data Selector Format</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>organelle</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>https://bioregistry.io/GO:0043226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OperaLX spinning-disk confocal microscope (Perkin Elmer) </t>
-  </si>
-  <si>
-    <t>CoolSNAP HQ 1.4; Photometrics</t>
+    <t>OperaLX spinning-disk confocal microscope (Perkin Elmer) with camer CoolSNAP HQ 1.4 (Photometrics)</t>
   </si>
   <si>
     <t>Leica HCX PL APO 100x, NA 1.47 Oil CORR TIRF PIFOC objective</t>
   </si>
   <si>
-    <t>additional 1.6x magnification lens</t>
-  </si>
-  <si>
-    <t>DIC</t>
-  </si>
-  <si>
-    <t>DPBO</t>
-  </si>
-  <si>
-    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000191</t>
-  </si>
-  <si>
     <t>MetaXpress Software</t>
-  </si>
-  <si>
-    <t>V6.1</t>
   </si>
   <si>
     <t>Image Dimension (XYZCT): 1376 x 1040 x 16 x 2 x 1</t>
@@ -364,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AR2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AR2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AK2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AK2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -403,59 +379,45 @@
     <filterColumn colId="34" hiddenButton="1"/>
     <filterColumn colId="35" hiddenButton="1"/>
     <filterColumn colId="36" hiddenButton="1"/>
-    <filterColumn colId="37" hiddenButton="1"/>
-    <filterColumn colId="38" hiddenButton="1"/>
-    <filterColumn colId="39" hiddenButton="1"/>
-    <filterColumn colId="40" hiddenButton="1"/>
-    <filterColumn colId="41" hiddenButton="1"/>
-    <filterColumn colId="42" hiddenButton="1"/>
-    <filterColumn colId="43" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="44">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [target compartment]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:1000121)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:1000121)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Component [microscope]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (OBI:0400169)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (OBI:0400169)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Component [digital camera]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (OBI:0001048)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (OBI:0001048)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Component [Objective]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (REPR:Objective)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (REPR:Objective)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [magnification]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:1000140)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:1000140)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [microscope filter]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (DPBO:1000125)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (DPBO:1000125)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Component [Imaging Software Name]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (NCIT:C175898)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (NCIT:C175898)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Parameter [imaging software settings]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (DPBO:1000124)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (DPBO:1000124)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Parameter [imaging software version]" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF (DPBO:1000123)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number (DPBO:1000123)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [Assay Name]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (NCIT:C178857)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (NCIT:C178857)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [dataset name]" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Term Source REF (DPBO:1000126)" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Accession Number (DPBO:1000126)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Parameter [image dimensionality]" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (DPBO:1000141)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (DPBO:1000141)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Parameter [raw data file format]" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Term Source REF (DPBO:0000021)" totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Accession Number (DPBO:0000021)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Parameter [image file path]" totalsRowFunction="none"/>
-    <tableColumn id="42" name="Term Source REF (DPBO:1000120)" totalsRowFunction="none"/>
-    <tableColumn id="43" name="Term Accession Number (DPBO:1000120)" totalsRowFunction="none"/>
-    <tableColumn id="44" name="Output [Data]" totalsRowFunction="none"/>
+  <tableColumns count="37">
+    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Component [Imaging System]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (NCIT:C78808)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (NCIT:C78808)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Component [Objective]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (REPR:Objective)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (REPR:Objective)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Component [Imaging Software Name]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (NCIT:C175898)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (NCIT:C175898)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Parameter [Imaging Technique]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (NCIT:C17369)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (NCIT:C17369)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Parameter [excitation method]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (DPBO:0000124)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (DPBO:0000124)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Parameter [Detector]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (NCIT:C41276)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (NCIT:C41276)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Parameter [Excitation Wavelength]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (NCIT:C204095)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (NCIT:C204095)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Parameter [detection wavelength]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (AFQ:0000029)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (AFQ:0000029)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Parameter [image dimensionality]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (DPBO:1000141)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (DPBO:1000141)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Parameter [Pixel Size]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (NCIT:C94953)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (NCIT:C94953)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Parameter [raw data file format]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Term Source REF (DPBO:0000021)" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Accession Number (DPBO:0000021)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Data Selector Format" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -758,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -874,65 +836,92 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -943,275 +932,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AK2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="Q1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="T1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="V1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="W1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="X1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Y1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Z1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AA1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AC1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AD1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AF1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AJ1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AK1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" t="s">
         <v>89</v>
       </c>
-      <c r="I2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AA2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" t="s">
         <v>90</v>
       </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" t="s">
-        <v>95</v>
-      </c>
-      <c r="U2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>84</v>
-      </c>
       <c r="AG2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/Imaging_assay.xlsx
+++ b/templates/dataplant/Imaging_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -272,19 +272,55 @@
     <t/>
   </si>
   <si>
-    <t>OperaLX spinning-disk confocal microscope (Perkin Elmer) with camer CoolSNAP HQ 1.4 (Photometrics)</t>
-  </si>
-  <si>
-    <t>Leica HCX PL APO 100x, NA 1.47 Oil CORR TIRF PIFOC objective</t>
-  </si>
-  <si>
-    <t>MetaXpress Software</t>
-  </si>
-  <si>
-    <t>Image Dimension (XYZCT): 1376 x 1040 x 16 x 2 x 1</t>
-  </si>
-  <si>
-    <t>OME-TIFF</t>
+    <t>Zeiss LSM780</t>
+  </si>
+  <si>
+    <t>C-Apochromat 40x/1.20 W Korr M27</t>
+  </si>
+  <si>
+    <t>Zeiss ZEN 3.5 (blue edition)</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000195</t>
+  </si>
+  <si>
+    <t>laser scanning confocal microscope</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/OBI:0001125</t>
+  </si>
+  <si>
+    <t>argon ion laser</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/OBI:0400010</t>
+  </si>
+  <si>
+    <t>photomultiplier tube</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/OBI:0400084</t>
+  </si>
+  <si>
+    <t>488 nm</t>
+  </si>
+  <si>
+    <t>490-550 nm</t>
+  </si>
+  <si>
+    <t>z-stack</t>
+  </si>
+  <si>
+    <t>0,21 x 0,21 x 1 (XYZ) [µm]</t>
+  </si>
+  <si>
+    <t>czi</t>
   </si>
 </sst>
 </file>
@@ -1074,40 +1110,40 @@
         <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="U2" t="s">
         <v>85</v>
@@ -1116,7 +1152,7 @@
         <v>85</v>
       </c>
       <c r="W2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="X2" t="s">
         <v>85</v>
@@ -1125,7 +1161,7 @@
         <v>85</v>
       </c>
       <c r="Z2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="s">
         <v>85</v>
@@ -1134,7 +1170,7 @@
         <v>85</v>
       </c>
       <c r="AC2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="AD2" t="s">
         <v>85</v>
@@ -1143,7 +1179,7 @@
         <v>85</v>
       </c>
       <c r="AF2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AG2" t="s">
         <v>85</v>
